--- a/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქ. ბათუმი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქ. ბათუმი.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
   <si>
     <t>მოქალაქეობა</t>
   </si>
@@ -40,9 +40,6 @@
     <t>მათ შორის: ევროკავშირის ქვეყნებიდან</t>
   </si>
   <si>
-    <t>−</t>
-  </si>
-  <si>
     <t>(კაცი)</t>
   </si>
   <si>
@@ -58,14 +55,65 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხელვაჩაურის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <t>−</t>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქ. ბათუმი მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +186,26 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +298,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -280,22 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,6 +368,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,14 +391,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,90 +709,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="22" customWidth="1"/>
-    <col min="2" max="4" width="20.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="19" customWidth="1"/>
+    <col min="2" max="4" width="20.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="20" customWidth="1"/>
     <col min="7" max="61" width="9.140625" style="16"/>
-    <col min="62" max="16384" width="9.140625" style="22"/>
+    <col min="62" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="27" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+    <row r="1" spans="1:61" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-    </row>
-    <row r="2" spans="1:61" s="27" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+    </row>
+    <row r="2" spans="1:61" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -742,48 +812,48 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
       <c r="U2" s="38"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-    </row>
-    <row r="3" spans="1:61" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+    </row>
+    <row r="3" spans="1:61" s="23" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -858,72 +928,72 @@
       <c r="BH3" s="7"/>
       <c r="BI3" s="6"/>
     </row>
-    <row r="4" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+    <row r="4" spans="1:61" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40">
         <v>2010</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="26"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="26"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="26"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="26"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="26"/>
+      <c r="AD4" s="21"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="26"/>
+      <c r="AI4" s="21"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
-      <c r="AN4" s="26"/>
+      <c r="AN4" s="21"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
-      <c r="AS4" s="26"/>
+      <c r="AS4" s="21"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="26"/>
+      <c r="AX4" s="21"/>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="26"/>
+      <c r="BC4" s="21"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
-      <c r="BH4" s="26"/>
+      <c r="BH4" s="21"/>
       <c r="BI4" s="8"/>
     </row>
-    <row r="5" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -936,8 +1006,8 @@
       <c r="D5" s="10">
         <v>19235</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
+      <c r="E5" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="10">
         <v>2081</v>
@@ -998,9 +1068,9 @@
       <c r="BH5" s="10"/>
       <c r="BI5" s="10"/>
     </row>
-    <row r="6" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="12">
         <v>69439</v>
@@ -1011,8 +1081,8 @@
       <c r="D6" s="12">
         <v>10947</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
+      <c r="E6" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="12">
         <v>1184</v>
@@ -1073,9 +1143,9 @@
       <c r="BH6" s="12"/>
       <c r="BI6" s="12"/>
     </row>
-    <row r="7" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12">
         <v>47404</v>
@@ -1086,8 +1156,8 @@
       <c r="D7" s="12">
         <v>8288</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
+      <c r="E7" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="12">
         <v>897</v>
@@ -1148,7 +1218,7 @@
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
     </row>
-    <row r="8" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1231,8 @@
       <c r="D8" s="12">
         <v>1371</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
+      <c r="E8" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="12">
         <v>78</v>
@@ -1223,9 +1293,9 @@
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
     </row>
-    <row r="9" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>18152</v>
@@ -1236,8 +1306,8 @@
       <c r="D9" s="12">
         <v>1671</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
+      <c r="E9" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="12">
         <v>250</v>
@@ -1298,9 +1368,9 @@
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="15">
         <v>21043</v>
@@ -1311,8 +1381,8 @@
       <c r="D10" s="15">
         <v>5246</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>8</v>
+      <c r="E10" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="15">
         <v>569</v>
@@ -1373,15 +1443,15 @@
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
     </row>
-    <row r="11" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+    <row r="11" spans="1:61" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
         <v>2011</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1451,8 +1521,8 @@
       <c r="D12" s="10">
         <v>21121</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
+      <c r="E12" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>9491</v>
@@ -1460,7 +1530,7 @@
     </row>
     <row r="13" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="12">
         <v>115571</v>
@@ -1471,8 +1541,8 @@
       <c r="D13" s="12">
         <v>13502</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>8</v>
+      <c r="E13" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="12">
         <v>5446</v>
@@ -1480,7 +1550,7 @@
     </row>
     <row r="14" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
         <v>101705</v>
@@ -1491,8 +1561,8 @@
       <c r="D14" s="12">
         <v>7619</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>8</v>
+      <c r="E14" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="12">
         <v>4045</v>
@@ -1511,8 +1581,8 @@
       <c r="D15" s="12">
         <v>1081</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>8</v>
+      <c r="E15" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="12">
         <v>51</v>
@@ -1520,7 +1590,7 @@
     </row>
     <row r="16" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="12">
         <v>26211</v>
@@ -1531,8 +1601,8 @@
       <c r="D16" s="12">
         <v>738</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
+      <c r="E16" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="12">
         <v>98</v>
@@ -1540,7 +1610,7 @@
     </row>
     <row r="17" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="15">
         <v>65296</v>
@@ -1551,15 +1621,15 @@
       <c r="D17" s="15">
         <v>5800</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
+      <c r="E17" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="15">
         <v>3896</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
         <v>2012</v>
       </c>
       <c r="B18" s="35"/>
@@ -1627,25 +1697,25 @@
       <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>338134</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>238357</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>56816</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10">
         <v>42961</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="12">
         <v>156428</v>
@@ -1656,8 +1726,8 @@
       <c r="D20" s="12">
         <v>33346</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>8</v>
+      <c r="E20" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="12">
         <v>28960</v>
@@ -1665,7 +1735,7 @@
     </row>
     <row r="21" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12">
         <v>181706</v>
@@ -1676,8 +1746,8 @@
       <c r="D21" s="12">
         <v>23470</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>8</v>
+      <c r="E21" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="12">
         <v>14001</v>
@@ -1696,8 +1766,8 @@
       <c r="D22" s="12">
         <v>2403</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
+      <c r="E22" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="12">
         <v>702</v>
@@ -1705,7 +1775,7 @@
     </row>
     <row r="23" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="12">
         <v>38312</v>
@@ -1716,8 +1786,8 @@
       <c r="D23" s="12">
         <v>2113</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>8</v>
+      <c r="E23" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="12">
         <v>1636</v>
@@ -1725,7 +1795,7 @@
     </row>
     <row r="24" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="15">
         <v>124678</v>
@@ -1736,22 +1806,22 @@
       <c r="D24" s="15">
         <v>18954</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>8</v>
+      <c r="E24" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="15">
         <v>11663</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+    <row r="25" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35">
         <v>2013</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -1830,7 +1900,7 @@
     </row>
     <row r="27" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="12">
         <v>98773</v>
@@ -1850,7 +1920,7 @@
     </row>
     <row r="28" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="12">
         <v>197471</v>
@@ -1890,7 +1960,7 @@
     </row>
     <row r="30" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="12">
         <v>50510</v>
@@ -1910,7 +1980,7 @@
     </row>
     <row r="31" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="15">
         <v>120229</v>
@@ -1928,15 +1998,15 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35">
         <v>2014</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -2015,7 +2085,7 @@
     </row>
     <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="12">
         <v>106517</v>
@@ -2035,7 +2105,7 @@
     </row>
     <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="12">
         <v>161945</v>
@@ -2075,7 +2145,7 @@
     </row>
     <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="12">
         <v>48040</v>
@@ -2095,7 +2165,7 @@
     </row>
     <row r="38" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="15">
         <v>90664</v>
@@ -2113,8 +2183,8 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="39" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+    <row r="39" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="35">
         <v>2015</v>
       </c>
       <c r="B39" s="35"/>
@@ -2182,25 +2252,25 @@
       <c r="A40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>363172</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>332719</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>26897</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="9">
+      <c r="E40" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="10">
         <v>3556</v>
       </c>
     </row>
     <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="12">
         <v>147106</v>
@@ -2211,8 +2281,8 @@
       <c r="D41" s="12">
         <v>11376</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>8</v>
+      <c r="E41" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="12">
         <v>1107</v>
@@ -2220,7 +2290,7 @@
     </row>
     <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="12">
         <v>216066</v>
@@ -2231,8 +2301,8 @@
       <c r="D42" s="12">
         <v>15521</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
+      <c r="E42" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="12">
         <v>2449</v>
@@ -2251,8 +2321,8 @@
       <c r="D43" s="12">
         <v>947</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>8</v>
+      <c r="E43" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="12">
         <v>243</v>
@@ -2260,7 +2330,7 @@
     </row>
     <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="12">
         <v>73320</v>
@@ -2271,8 +2341,8 @@
       <c r="D44" s="12">
         <v>3799</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>8</v>
+      <c r="E44" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="12">
         <v>679</v>
@@ -2280,7 +2350,7 @@
     </row>
     <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="15">
         <v>123022</v>
@@ -2291,15 +2361,15 @@
       <c r="D45" s="15">
         <v>10775</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>8</v>
+      <c r="E45" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="15">
         <v>1527</v>
       </c>
     </row>
-    <row r="46" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+    <row r="46" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="35">
         <v>2016</v>
       </c>
       <c r="B46" s="35"/>
@@ -2367,25 +2437,25 @@
       <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>521959</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>467873</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>51330</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="10">
         <v>2756</v>
       </c>
     </row>
     <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="12">
         <v>170790</v>
@@ -2396,8 +2466,8 @@
       <c r="D48" s="12">
         <v>27331</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>8</v>
+      <c r="E48" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="12">
         <v>2275</v>
@@ -2405,7 +2475,7 @@
     </row>
     <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="12">
         <v>351169</v>
@@ -2416,8 +2486,8 @@
       <c r="D49" s="12">
         <v>23999</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>8</v>
+      <c r="E49" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="12">
         <v>481</v>
@@ -2436,8 +2506,8 @@
       <c r="D50" s="12">
         <v>1922</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>8</v>
+      <c r="E50" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="12">
         <v>41</v>
@@ -2445,7 +2515,7 @@
     </row>
     <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="12">
         <v>104451</v>
@@ -2456,8 +2526,8 @@
       <c r="D51" s="12">
         <v>7707</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>8</v>
+      <c r="E51" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F51" s="12">
         <v>132</v>
@@ -2465,7 +2535,7 @@
     </row>
     <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="15">
         <v>226346</v>
@@ -2476,22 +2546,22 @@
       <c r="D52" s="15">
         <v>14370</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>8</v>
+      <c r="E52" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="15">
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+    <row r="53" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35">
         <v>2017</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -2570,7 +2640,7 @@
     </row>
     <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="12">
         <v>235161</v>
@@ -2590,7 +2660,7 @@
     </row>
     <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="12">
         <v>436957</v>
@@ -2630,7 +2700,7 @@
     </row>
     <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="12">
         <v>115390</v>
@@ -2650,7 +2720,7 @@
     </row>
     <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="15">
         <v>298691</v>
@@ -2668,15 +2738,15 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+    <row r="60" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="35">
         <v>2018</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -2755,7 +2825,7 @@
     </row>
     <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" s="12">
         <v>222556</v>
@@ -2775,7 +2845,7 @@
     </row>
     <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" s="12">
         <v>488769</v>
@@ -2815,7 +2885,7 @@
     </row>
     <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="12">
         <v>136574</v>
@@ -2835,7 +2905,7 @@
     </row>
     <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="15">
         <v>320230</v>
@@ -2853,15 +2923,15 @@
         <v>30051</v>
       </c>
     </row>
-    <row r="67" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
+    <row r="67" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="35">
         <v>2019</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -2940,7 +3010,7 @@
     </row>
     <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" s="12">
         <v>243177</v>
@@ -2960,7 +3030,7 @@
     </row>
     <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="12">
         <v>649518</v>
@@ -2991,8 +3061,8 @@
       <c r="D71" s="12">
         <v>2669</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>8</v>
+      <c r="E71" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F71" s="12">
         <v>14</v>
@@ -3000,7 +3070,7 @@
     </row>
     <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="12">
         <v>133263</v>
@@ -3011,8 +3081,8 @@
       <c r="D72" s="12">
         <v>11039</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>8</v>
+      <c r="E72" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F72" s="12">
         <v>10176</v>
@@ -3020,7 +3090,7 @@
     </row>
     <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="15">
         <v>475163</v>
@@ -3038,15 +3108,15 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="74" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="34">
+    <row r="74" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="35">
         <v>2020</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
@@ -3125,7 +3195,7 @@
     </row>
     <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" s="12">
         <v>217689</v>
@@ -3145,7 +3215,7 @@
     </row>
     <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="12">
         <v>55848</v>
@@ -3185,7 +3255,7 @@
     </row>
     <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="12">
         <v>16777</v>
@@ -3205,7 +3275,7 @@
     </row>
     <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B80" s="15">
         <v>35694</v>
@@ -3223,15 +3293,15 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="81" spans="1:61" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="34">
+    <row r="81" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="35">
         <v>2021</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
@@ -3310,7 +3380,7 @@
     </row>
     <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" s="12">
         <v>235261</v>
@@ -3330,7 +3400,7 @@
     </row>
     <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="12">
         <v>279533</v>
@@ -3341,8 +3411,8 @@
       <c r="D84" s="12">
         <v>1465</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>8</v>
+      <c r="E84" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F84" s="12">
         <v>486</v>
@@ -3361,8 +3431,8 @@
       <c r="D85" s="12">
         <v>162</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>8</v>
+      <c r="E85" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F85" s="12">
         <v>104</v>
@@ -3370,7 +3440,7 @@
     </row>
     <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="12">
         <v>58545</v>
@@ -3381,8 +3451,8 @@
       <c r="D86" s="12">
         <v>65</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>8</v>
+      <c r="E86" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F86" s="12">
         <v>10</v>
@@ -3390,7 +3460,7 @@
     </row>
     <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" s="15">
         <v>213766</v>
@@ -3401,15 +3471,41 @@
       <c r="D87" s="15">
         <v>1238</v>
       </c>
-      <c r="E87" s="20" t="s">
-        <v>8</v>
+      <c r="E87" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="F87" s="15">
         <v>372</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3419,22 +3515,8 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>